--- a/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="stklist" sheetId="4" r:id="rId3"/>
     <sheet name="account2021" sheetId="6" r:id="rId4"/>
     <sheet name="stklist2021" sheetId="7" r:id="rId5"/>
-    <sheet name="tradinglog2021" sheetId="5" r:id="rId6"/>
+    <sheet name="tradinglog" sheetId="5" r:id="rId6"/>
     <sheet name="finalreckoningresult" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="490">
   <si>
     <t>ACCTID</t>
   </si>
@@ -652,9 +652,6 @@
     <t>005_001_001</t>
   </si>
   <si>
-    <t>20210130160722</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -1468,13 +1465,31 @@
     <t>5554075.600</t>
   </si>
   <si>
-    <t>30000045</t>
-  </si>
-  <si>
     <t>25.10000000</t>
   </si>
   <si>
     <t>7.530</t>
+  </si>
+  <si>
+    <t>30051548</t>
+  </si>
+  <si>
+    <t>20221011231135</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>20221011100614</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20221012000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
   </si>
 </sst>
 </file>
@@ -1830,9 +1845,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>207</v>
       </c>
@@ -2073,8 +2088,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,449 +2105,449 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="BS1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="EP1" s="1" t="s">
-        <v>395</v>
-      </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>140</v>
@@ -2552,19 +2567,19 @@
         <v>141</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>146</v>
@@ -2594,7 +2609,7 @@
         <v>163</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>146</v>
@@ -2603,13 +2618,13 @@
         <v>146</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>175</v>
@@ -2621,7 +2636,7 @@
         <v>149</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>142</v>
@@ -2630,7 +2645,7 @@
         <v>163</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>146</v>
@@ -2639,7 +2654,7 @@
         <v>175</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>149</v>
@@ -2651,7 +2666,7 @@
         <v>146</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>146</v>
@@ -2669,10 +2684,10 @@
         <v>149</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>175</v>
@@ -2789,10 +2804,10 @@
         <v>140</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="CS2" s="1" t="s">
         <v>146</v>
@@ -2801,10 +2816,10 @@
         <v>146</v>
       </c>
       <c r="CU2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="CV2" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>149</v>
@@ -2946,89 +2961,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3054,43 +3069,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>1</v>
@@ -3105,181 +3120,181 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>474</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
@@ -3311,10 +3326,10 @@
         <v>147</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>146</v>
@@ -3359,7 +3374,7 @@
         <v>163</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>149</v>
@@ -3479,16 +3494,16 @@
         <v>149</v>
       </c>
       <c r="BO2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="BQ2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>149</v>
@@ -3530,8 +3545,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3546,389 +3561,389 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="CG1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CK1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="CM1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="CN1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="CR1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="CS1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="CS1" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="CT1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="CU1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CV1" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="CW1" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CY1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="DF1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="DV1" s="1" t="s">
-        <v>395</v>
-      </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -3939,7 +3954,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>140</v>
@@ -3951,19 +3966,19 @@
         <v>141</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>146</v>
@@ -3993,7 +4008,7 @@
         <v>163</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>146</v>
@@ -4002,13 +4017,13 @@
         <v>146</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>175</v>
@@ -4020,7 +4035,7 @@
         <v>149</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>142</v>
@@ -4029,7 +4044,7 @@
         <v>163</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>146</v>
@@ -4038,7 +4053,7 @@
         <v>175</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>149</v>
@@ -4050,10 +4065,10 @@
         <v>146</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>175</v>
@@ -4068,10 +4083,10 @@
         <v>149</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>175</v>
@@ -4182,16 +4197,16 @@
         <v>140</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>146</v>
@@ -4275,9 +4290,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4292,11 +4307,11 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4323,43 +4338,43 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>1</v>
@@ -4374,157 +4389,157 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="BR1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>474</v>
-      </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -4559,10 +4574,10 @@
         <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>146</v>
@@ -4607,7 +4622,7 @@
         <v>146</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>149</v>
@@ -4709,16 +4724,16 @@
         <v>149</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>149</v>
@@ -4754,8 +4769,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4764,148 +4779,148 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EF2"/>
+  <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4914,7 +4929,7 @@
         <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4923,7 +4938,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>51</v>
@@ -4932,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>42</v>
@@ -4980,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>197</v>
@@ -5004,7 +5019,7 @@
         <v>26</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>33</v>
@@ -5025,7 +5040,7 @@
         <v>30</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>38</v>
@@ -5034,52 +5049,52 @@
         <v>41</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>47</v>
@@ -5097,7 +5112,7 @@
         <v>57</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>52</v>
@@ -5109,19 +5124,19 @@
         <v>65</v>
       </c>
       <c r="BR1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>66</v>
@@ -5145,10 +5160,10 @@
         <v>74</v>
       </c>
       <c r="CD1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>76</v>
@@ -5163,40 +5178,40 @@
         <v>79</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>106</v>
       </c>
       <c r="CL1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="CN1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="CO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CT1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>86</v>
@@ -5208,34 +5223,34 @@
         <v>85</v>
       </c>
       <c r="CY1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="DI1" s="1" t="s">
         <v>87</v>
@@ -5295,24 +5310,24 @@
         <v>109</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="ED1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="EE1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="EF1" s="1" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="2" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>209</v>
@@ -5321,10 +5336,10 @@
         <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>484</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>484</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>142</v>
@@ -5372,19 +5387,19 @@
         <v>147</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>155</v>
+        <v>485</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>147</v>
@@ -5393,7 +5408,7 @@
         <v>182</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>183</v>
@@ -5429,7 +5444,7 @@
         <v>146</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>154</v>
@@ -5447,7 +5462,7 @@
         <v>152</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>156</v>
@@ -5459,7 +5474,7 @@
         <v>146</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>149</v>
@@ -5489,10 +5504,10 @@
         <v>149</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>173</v>
+        <v>486</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>139</v>
@@ -5519,7 +5534,7 @@
         <v>142</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>149</v>
+        <v>487</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>146</v>
@@ -5543,7 +5558,7 @@
         <v>175</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>190</v>
+        <v>488</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>172</v>
@@ -5561,16 +5576,16 @@
         <v>149</v>
       </c>
       <c r="DA2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>172</v>
@@ -5582,7 +5597,7 @@
         <v>141</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>181</v>
+        <v>489</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>146</v>
@@ -5640,6 +5655,12 @@
       </c>
       <c r="EE2" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5656,9 +5677,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6077,7 +6098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -6463,9 +6484,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="490">
   <si>
     <t>ACCTID</t>
   </si>
@@ -1234,9 +1234,6 @@
     <t>0.0076000000</t>
   </si>
   <si>
-    <t>6554075.600</t>
-  </si>
-  <si>
     <t>0.050000</t>
   </si>
   <si>
@@ -1490,6 +1487,9 @@
   </si>
   <si>
     <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>20211212000000</t>
   </si>
 </sst>
 </file>
@@ -2099,15 +2099,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP2"/>
+  <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>146</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>175</v>
@@ -2645,7 +2645,7 @@
         <v>163</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>146</v>
@@ -2654,7 +2654,7 @@
         <v>175</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>149</v>
@@ -2684,10 +2684,10 @@
         <v>149</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>175</v>
@@ -2948,6 +2948,12 @@
         <v>146</v>
       </c>
       <c r="EP2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3069,43 +3075,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>270</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>1</v>
@@ -3120,178 +3126,178 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="BY1" s="1" t="s">
         <v>380</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3326,10 +3332,10 @@
         <v>147</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>146</v>
@@ -3374,7 +3380,7 @@
         <v>163</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>149</v>
@@ -3494,16 +3500,16 @@
         <v>149</v>
       </c>
       <c r="BO2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BP2" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="BQ2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BS2" s="1" t="s">
         <v>149</v>
@@ -3972,7 +3978,7 @@
         <v>146</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>397</v>
@@ -4044,7 +4050,7 @@
         <v>163</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>146</v>
@@ -4053,7 +4059,7 @@
         <v>175</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>149</v>
@@ -4068,7 +4074,7 @@
         <v>211</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>175</v>
@@ -4083,10 +4089,10 @@
         <v>149</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>175</v>
@@ -4338,43 +4344,43 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>270</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>1</v>
@@ -4389,154 +4395,154 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>380</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -4574,7 +4580,7 @@
         <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>396</v>
@@ -4622,7 +4628,7 @@
         <v>146</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>149</v>
@@ -4724,7 +4730,7 @@
         <v>149</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>396</v>
@@ -4733,7 +4739,7 @@
         <v>146</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>149</v>
@@ -4781,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5327,7 +5333,7 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>209</v>
@@ -5336,10 +5342,10 @@
         <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>142</v>
@@ -5387,13 +5393,13 @@
         <v>147</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>171</v>
@@ -5408,7 +5414,7 @@
         <v>182</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>183</v>
@@ -5507,7 +5513,7 @@
         <v>267</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>139</v>
@@ -5534,7 +5540,7 @@
         <v>142</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>146</v>
@@ -5558,7 +5564,7 @@
         <v>175</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>172</v>
@@ -5597,7 +5603,7 @@
         <v>141</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>146</v>

--- a/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/深A/股票买入虚拟股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,7 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>20211212000000</t>
+    <t>20220105000000</t>
   </si>
 </sst>
 </file>
@@ -1845,9 +1845,9 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>207</v>
       </c>
@@ -2088,8 +2088,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,13 +2101,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2960,6 +2960,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2971,85 +2972,85 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="26" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
@@ -3551,8 +3552,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3567,9 +3568,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -4296,9 +4297,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,9 +4314,9 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
@@ -4775,8 +4776,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4791,137 +4792,137 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>482</v>
       </c>
@@ -5683,9 +5684,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -6490,9 +6491,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
